--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
@@ -61,9 +61,6 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -85,37 +88,16 @@
     <t>Clicks per session</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Number of clicks</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -124,28 +106,46 @@
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Discussions viewed</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
+    <t>Assignments submitted</t>
   </si>
   <si>
     <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
   </si>
 </sst>
 </file>
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -817,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -834,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -866,13 +866,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -930,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,19 +1058,19 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1090,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1122,28 +1122,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1154,28 +1154,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1250,13 +1250,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1474,13 +1474,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>40</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1799,12 +1799,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1927,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1947,24 +1947,24 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1988,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1999,42 +1999,42 @@
         <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2055,27 +2055,27 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2087,18 +2087,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,77 +2124,77 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2215,18 +2215,18 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2375,18 +2375,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2407,18 +2407,18 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -2836,12 +2836,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3048,24 +3048,24 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3115,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3193,31 +3193,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3225,31 +3225,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3284,12 +3284,12 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3298,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3435,30 +3435,30 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3467,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -3481,13 +3481,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3531,21 +3531,21 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -3572,12 +3572,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4175,22 +4175,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -4245,16 +4245,16 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4353,15 +4353,15 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -4376,21 +4376,21 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4434,19 +4434,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4466,10 +4466,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4513,15 +4513,15 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4594,19 +4594,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -4626,19 +4626,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
@@ -61,6 +61,9 @@
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -70,16 +73,19 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
     <t>Clicks per day</t>
   </si>
   <si>
     <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -88,61 +94,55 @@
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Forum posts</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -817,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -834,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -866,13 +866,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -933,25 +933,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -994,10 +994,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1122,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1163,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1218,28 +1218,28 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1250,13 +1250,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1387,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1950,21 +1950,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1979,24 +1979,24 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2075,16 +2075,16 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -2151,12 +2151,12 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2183,18 +2183,18 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2226,13 +2226,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2244,15 +2244,15 @@
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2279,12 +2279,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,16 +2316,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2375,12 +2375,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2836,12 +2836,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2882,13 +2882,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2905,16 +2905,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3010,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,22 +3042,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -3065,16 +3065,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3115,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -3176,39 +3176,39 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3220,44 +3220,44 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3284,59 +3284,59 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3348,15 +3348,15 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3380,12 +3380,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -3397,65 +3397,65 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3464,30 +3464,30 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3496,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,16 +3545,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,16 +3974,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4015,13 +4015,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -4193,15 +4193,15 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4213,16 +4213,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4262,16 +4262,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -4280,13 +4280,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4303,13 +4303,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4326,10 +4326,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -4358,22 +4358,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4390,13 +4390,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4466,10 +4466,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4518,19 +4518,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4562,19 +4562,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -4582,45 +4582,45 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -4705,12 +4705,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
@@ -79,28 +79,19 @@
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Clicks per session</t>
   </si>
   <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -109,25 +100,37 @@
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Number of days</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -136,16 +139,13 @@
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -898,7 +898,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -930,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -997,25 +997,25 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1026,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1090,28 +1090,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1122,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1227,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1387,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1979,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2043,24 +2043,24 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2104,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,22 +2156,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2188,31 +2188,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2252,13 +2252,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2270,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,16 +2316,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2407,18 +2407,18 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2439,12 +2439,12 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2882,13 +2882,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2905,16 +2905,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2946,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2978,13 +2978,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -3028,18 +3028,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,16 +3065,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3129,22 +3129,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -3179,13 +3179,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -3193,19 +3193,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -3225,51 +3225,51 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3284,82 +3284,82 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3380,15 +3380,15 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -3397,39 +3397,39 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3464,30 +3464,30 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3496,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,16 +3513,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4015,13 +4015,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4120,21 +4120,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4152,24 +4152,24 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4193,18 +4193,18 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4248,27 +4248,27 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -4277,19 +4277,19 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4306,33 +4306,33 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4353,18 +4353,18 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -4385,21 +4385,21 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -4422,13 +4422,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4437,16 +4437,16 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4481,18 +4481,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4545,39 +4545,39 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4588,48 +4588,48 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -4641,15 +4641,15 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -4705,12 +4705,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
@@ -58,12 +58,6 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -71,6 +65,12 @@
   </si>
   <si>
     <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -85,25 +85,31 @@
     <t>Clicks per session</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Number of clicks</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Number of days</t>
@@ -118,12 +124,6 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
     <t>Discussions viewed</t>
   </si>
   <si>
@@ -133,19 +133,19 @@
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Forum posts</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -930,19 +930,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1154,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1186,28 +1186,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1218,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1282,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2087,12 +2087,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2104,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2188,31 +2188,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2471,18 +2471,18 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2503,21 +2503,21 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2532,15 +2532,15 @@
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,16 +2809,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2946,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -3028,27 +3028,27 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3129,54 +3129,54 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3188,27 +3188,27 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3220,18 +3220,18 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3284,15 +3284,15 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3324,28 +3324,28 @@
         <v>32</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3380,15 +3380,15 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -3412,44 +3412,44 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4166,22 +4166,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -4257,27 +4257,27 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4289,36 +4289,36 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4344,13 +4344,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,22 +4358,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4417,24 +4417,24 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4449,18 +4449,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -4518,42 +4518,42 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -4562,19 +4562,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4614,22 +4614,22 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -4641,21 +4641,21 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4673,12 +4673,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4783,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_33.xlsx
@@ -58,6 +58,12 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -65,12 +71,6 @@
   </si>
   <si>
     <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -88,10 +88,10 @@
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Number of clicks</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
@@ -100,16 +100,7 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Number of days</t>
@@ -124,28 +115,37 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Forum posts</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1090,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1154,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1250,28 +1250,28 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1282,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1387,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1506,7 +1506,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2104,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2136,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2232,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,16 +2508,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3010,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3033,22 +3033,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3129,54 +3129,54 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3188,24 +3188,24 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3301,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3316,24 +3316,24 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -3348,12 +3348,12 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -3400,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3444,12 +3444,12 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,13 +3481,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3496,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,16 +3513,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3668,12 +3668,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4015,13 +4015,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4120,21 +4120,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4152,36 +4152,36 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4193,18 +4193,18 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4248,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4262,16 +4262,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -4280,13 +4280,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -4294,22 +4294,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4321,15 +4321,15 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -4344,36 +4344,36 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4385,44 +4385,44 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4449,18 +4449,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4530,19 +4530,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -4550,80 +4550,80 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4632,27 +4632,27 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -4673,24 +4673,24 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4705,18 +4705,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -4737,27 +4737,27 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4769,24 +4769,24 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -4801,18 +4801,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -4865,18 +4865,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
